--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zcy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E8677-9974-4911-821E-1C4FEF1D2CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7498A4-0050-4268-9C87-F4BF689E9298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>D:\Monash\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define your own project path where the code，data and result will be located</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If it put to 0, the project will run on a small dataset. If it put to 1, it will run on norman data set.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,40 +381,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="80.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
